--- a/data/financial_statements/soci/PSA.xlsx
+++ b/data/financial_statements/soci/PSA.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1094000000</v>
+        <v>1088131000</v>
       </c>
       <c r="C2">
-        <v>1032000000</v>
+        <v>1032045000</v>
       </c>
       <c r="D2">
-        <v>973000000</v>
+        <v>973445000</v>
       </c>
       <c r="E2">
-        <v>924000000</v>
+        <v>924316100</v>
       </c>
       <c r="F2">
-        <v>895000000</v>
+        <v>894931000</v>
       </c>
       <c r="G2">
         <v>829315000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2223</v>
+        <v>0.2159</v>
       </c>
       <c r="C3">
-        <v>0.2444</v>
+        <v>0.2445</v>
       </c>
       <c r="D3">
-        <v>0.2681</v>
+        <v>0.2687</v>
       </c>
       <c r="E3">
-        <v>0.2344</v>
+        <v>0.2348</v>
       </c>
       <c r="F3">
-        <v>0.2184</v>
+        <v>0.2183</v>
       </c>
       <c r="G3">
         <v>0.1632</v>
@@ -858,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>277042000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>811089000</v>
@@ -1102,8 +1213,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>29501000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>560816000</v>
@@ -1346,11 +1457,11 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>8000000</v>
+        <v>34113000</v>
       </c>
       <c r="C8">
         <v>32941000</v>
@@ -1465,17 +1576,17 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>1000000</v>
+        <v>2107483000</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>-22662000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-29745000</v>
       </c>
       <c r="E9">
         <v>-26809000</v>
@@ -1587,16 +1698,16 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G10">
         <v>3991000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>101673000</v>
@@ -1711,23 +1822,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2789000000</v>
+        <v>2668299000</v>
       </c>
       <c r="C12">
-        <v>660000000</v>
+        <v>506645100</v>
       </c>
       <c r="D12">
-        <v>519000000</v>
+        <v>437494000</v>
       </c>
       <c r="E12">
-        <v>609000000</v>
+        <v>433104900</v>
       </c>
       <c r="F12">
-        <v>476000000</v>
+        <v>417583000</v>
       </c>
       <c r="G12">
         <v>391380000</v>
@@ -1833,8 +1944,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2668299000</v>
@@ -1955,8 +2066,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>8180000</v>
@@ -2077,8 +2188,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>56833000</v>
@@ -2199,8 +2310,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>9158000</v>
@@ -2321,23 +2432,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2712000000</v>
+        <v>2712161000</v>
       </c>
       <c r="C17">
-        <v>603000000</v>
+        <v>603381000</v>
       </c>
       <c r="D17">
-        <v>464000000</v>
+        <v>464124000</v>
       </c>
       <c r="E17">
-        <v>542000000</v>
+        <v>558057900</v>
       </c>
       <c r="F17">
-        <v>423000000</v>
+        <v>442327000</v>
       </c>
       <c r="G17">
         <v>346249000</v>
@@ -2443,23 +2554,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>15.38</v>
+        <v>15.47</v>
       </c>
       <c r="C18">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="D18">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E18">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="F18">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="G18">
         <v>1.98</v>
@@ -2565,8 +2676,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>15.38</v>
@@ -2687,23 +2798,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>175000000</v>
+        <v>175283000</v>
       </c>
       <c r="C20">
-        <v>175000000</v>
+        <v>175229000</v>
       </c>
       <c r="D20">
-        <v>175000000</v>
+        <v>175170000</v>
       </c>
       <c r="E20">
-        <v>175000000</v>
+        <v>174858000</v>
       </c>
       <c r="F20">
-        <v>175000000</v>
+        <v>174926000</v>
       </c>
       <c r="G20">
         <v>174824000</v>
@@ -2809,23 +2920,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>176000000</v>
+        <v>176328000</v>
       </c>
       <c r="C21">
-        <v>176000000</v>
+        <v>176312000</v>
       </c>
       <c r="D21">
-        <v>176000000</v>
+        <v>176336000</v>
       </c>
       <c r="E21">
-        <v>176000000</v>
+        <v>175568000</v>
       </c>
       <c r="F21">
-        <v>176000000</v>
+        <v>175806000</v>
       </c>
       <c r="G21">
         <v>175547000</v>
@@ -2931,23 +3042,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.7413999999999999</v>
+        <v>0.7454</v>
       </c>
       <c r="C22">
-        <v>0.7528</v>
+        <v>0.7527</v>
       </c>
       <c r="D22">
-        <v>0.7322</v>
+        <v>0.7319</v>
       </c>
       <c r="E22">
-        <v>0.744</v>
+        <v>0.7438</v>
       </c>
       <c r="F22">
-        <v>0.7354000000000001</v>
+        <v>0.7355</v>
       </c>
       <c r="G22">
         <v>0.7364000000000001</v>
@@ -3053,23 +3164,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.5125999999999999</v>
+        <v>0.5154</v>
       </c>
       <c r="C23">
         <v>0.5129</v>
       </c>
       <c r="D23">
-        <v>0.4802</v>
+        <v>0.48</v>
       </c>
       <c r="E23">
-        <v>0.4977</v>
+        <v>0.4976</v>
       </c>
       <c r="F23">
-        <v>0.4893</v>
+        <v>0.4894</v>
       </c>
       <c r="G23">
         <v>0.4947</v>
@@ -3175,23 +3286,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2.5494</v>
+        <v>2.4522</v>
       </c>
       <c r="C24">
-        <v>0.6395</v>
+        <v>0.4909</v>
       </c>
       <c r="D24">
-        <v>0.5334</v>
+        <v>0.4494</v>
       </c>
       <c r="E24">
-        <v>0.6591</v>
+        <v>0.4686</v>
       </c>
       <c r="F24">
-        <v>0.5318000000000001</v>
+        <v>0.4666</v>
       </c>
       <c r="G24">
         <v>0.4719</v>
@@ -3297,23 +3408,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2.479</v>
+        <v>2.4925</v>
       </c>
       <c r="C25">
-        <v>0.5843</v>
+        <v>0.5846</v>
       </c>
       <c r="D25">
-        <v>0.4769</v>
+        <v>0.4768</v>
       </c>
       <c r="E25">
-        <v>0.5866</v>
+        <v>0.6038</v>
       </c>
       <c r="F25">
-        <v>0.4726</v>
+        <v>0.4943</v>
       </c>
       <c r="G25">
         <v>0.4175</v>
@@ -3419,8 +3530,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>781588000</v>
@@ -3541,8 +3652,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>560816000</v>
@@ -3663,8 +3774,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2778152000</v>
@@ -3785,23 +3896,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2778000000</v>
+        <v>2778152000</v>
       </c>
       <c r="C29">
-        <v>657000000</v>
+        <v>656893000</v>
       </c>
       <c r="D29">
-        <v>516000000</v>
+        <v>516295000</v>
       </c>
       <c r="E29">
-        <v>605000000</v>
+        <v>622019000</v>
       </c>
       <c r="F29">
-        <v>472000000</v>
+        <v>491628000</v>
       </c>
       <c r="G29">
         <v>411730000</v>
@@ -3907,8 +4018,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>15.8495</v>
@@ -4029,8 +4140,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>15.7556</v>
@@ -4151,8 +4262,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>15.8495</v>
@@ -4273,8 +4384,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>15.7556</v>
@@ -4395,8 +4506,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>176328000</v>
@@ -4517,23 +4628,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.7144</v>
+        <v>0.7183</v>
       </c>
       <c r="C35">
         <v>0.7248</v>
       </c>
       <c r="D35">
-        <v>0.7085</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="E35">
-        <v>0.7199</v>
+        <v>0.7197</v>
       </c>
       <c r="F35">
-        <v>0.7</v>
+        <v>0.7000999999999999</v>
       </c>
       <c r="G35">
         <v>0.703</v>
@@ -4639,23 +4750,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.8474</v>
+        <v>0.8603</v>
       </c>
       <c r="C36">
-        <v>0.7728</v>
+        <v>0.7772</v>
       </c>
       <c r="D36">
-        <v>0.6745</v>
+        <v>0.6741</v>
       </c>
       <c r="E36">
-        <v>0.7887999999999999</v>
+        <v>0.8001</v>
       </c>
       <c r="F36">
-        <v>0.7645</v>
+        <v>0.7645999999999999</v>
       </c>
       <c r="G36">
         <v>0.7492</v>
